--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -532,6 +532,9 @@
       <c r="C11" t="str">
         <v>135_甜蜜曼塔_sweet menta_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F11" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -593,7 +596,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0241626194151611160</v>
+        <v>0241626194151611163</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -536,9 +536,95 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F12" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>6</v>
+      </c>
+      <c r="C13" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F13" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F14" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>7</v>
+      </c>
+      <c r="C15" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>191_朱小姐_Miss Piggy_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>8</v>
+      </c>
+      <c r="C18" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>152_白荔枝_White Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F19" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>195_闺蜜_Alter Ego_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F20" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -596,7 +682,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0241626194151611163</v>
+        <v>0241626194151611163212618377326990</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -619,7 +619,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>9</v>
+        <v>9m</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -619,7 +619,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>9m</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -621,6 +621,9 @@
       <c r="A21" t="str">
         <v>9</v>
       </c>
+      <c r="C21" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -624,10 +624,96 @@
       <c r="C21" t="str">
         <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>209_海洋之歌_Ocean Song_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>10</v>
+      </c>
+      <c r="C24" t="str">
+        <v>263_乡村阳光_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>184_微光_shimmer_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F28" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>11</v>
+      </c>
+      <c r="C29" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -685,7 +771,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0241626194151611163212618377326990</v>
+        <v>02416261941516111632126183773269920620871161120600</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -710,6 +710,9 @@
       <c r="A31" t="str">
         <v>12</v>
       </c>
+      <c r="C31" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,10 +713,93 @@
       <c r="C31" t="str">
         <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>13</v>
+      </c>
+      <c r="C35" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>276_情迷罗拉_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>229_黄蝴蝶_Yellow Butterfly_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>234_白泡泡_White Bubbles_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -774,7 +857,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02416261941516111632126183773269920620871161120600</v>
+        <v>0241626194151611163212618377326992062087116112060202014220410121060</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -796,6 +796,9 @@
       <c r="C41" t="str">
         <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -857,7 +860,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0241626194151611163212618377326992062087116112060202014220410121060</v>
+        <v>0241626194151611163212618377326992062087116112060202014220410121063</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -800,9 +800,95 @@
         <v>3</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>14</v>
+      </c>
+      <c r="C43" t="str">
+        <v>157_流沙_Quicksand_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>15</v>
+      </c>
+      <c r="C47" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>16</v>
+      </c>
+      <c r="C48" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>275_长相思_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -860,7 +946,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0241626194151611163212618377326992062087116112060202014220410121063</v>
+        <v>02416261941516111632126183773269920620871161120602020142204101210631065314.54232570</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -885,6 +885,9 @@
       <c r="A51" t="str">
         <v>17</v>
       </c>
+      <c r="C51" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -888,6 +888,9 @@
       <c r="C51" t="str">
         <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
       </c>
+      <c r="F51" t="str">
+        <v>14.5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -949,7 +952,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02416261941516111632126183773269920620871161120602020142204101210631065314.54232570</v>
+        <v>02416261941516111632126183773269920620871161120602020142204101210631065314.542325714.5</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-10-15.xlsx
+++ b/DateBase/orders/Nha Thu_2025-10-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,9 +892,71 @@
         <v>14.5</v>
       </c>
     </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>18</v>
+      </c>
+      <c r="C55" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>19</v>
+      </c>
+      <c r="C56" t="str">
+        <v>208_紫霞仙子 _Nightingale_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>197_粉红雪山_Sweet Avalanche_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L58"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -952,7 +1014,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02416261941516111632126183773269920620871161120602020142204101210631065314.542325714.5</v>
+        <v>02416261941516111632126183773269920620871161120602020142204101210631065314.542325714.51014345.516620</v>
       </c>
     </row>
   </sheetData>
